--- a/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\Datas(2)\Island\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5046BBFF-4407-4AD1-A62A-4113C1285F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -100,81 +107,77 @@
     <t>附着点</t>
   </si>
   <si>
+    <t>常规岛屿</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>0;0|0;1|1;1|1;0|0;2|1;2|2;2|2;1|2;0</t>
+  </si>
+  <si>
+    <t>0;0|0;1|1;0|0;2|2;0|1;2|2;2|2;1</t>
+  </si>
+  <si>
+    <t>微型岛屿</t>
+  </si>
+  <si>
     <t>1;1</t>
   </si>
   <si>
+    <t>1;0|0;1|2;1|1;3</t>
+  </si>
+  <si>
     <t>小型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|1;2|2;2|3;2|1;3|2;3|3;3</t>
+  </si>
+  <si>
+    <t>2;0|3;0|0;1|0;2|4;1|4;2|4;3|1;4|2;4|3;4</t>
+  </si>
+  <si>
     <t>中型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|4;1|1;2|2;2|3;2|4;2|1;3|2;3|3;3|4;3|2;4|3;4</t>
+  </si>
+  <si>
+    <t>1;0|2;0|3;0|4;0|0;1|0;2|0;3|1;4|2;5|3;5|4;4|5;4|5;3|5;2|5;1</t>
+  </si>
+  <si>
     <t>大型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|4;1|5;1|1;2|2;2|3;2|4;2|5;2|1;3|2;3|3;3|4;3|5;3|6;3|1;4|2;4|3;4|4;4|5;4|6;4|1;5|2;5|3;5|4;5|5;5|6;5|1;6|2;6|3;6|4;6|5;6</t>
+  </si>
+  <si>
+    <t>1;0|2;0|3;0|4;0|5;0|0;1|0;2|0;3|0;4|0;5|0;6|1;7|2;7|5;7|6;6|7;5|7;4|7;3|6;1</t>
+  </si>
+  <si>
     <t>巨型岛屿</t>
   </si>
   <si>
-    <t>常规岛屿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型岛屿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|0;1|1;0|0;2|2;0|1;2|2;2|2;1</t>
-  </si>
-  <si>
-    <t>1;0|0;1|2;1|1;3</t>
-  </si>
-  <si>
-    <t>2;0|3;0|0;1|0;2|4;1|4;2|4;3|1;4|2;4|3;4</t>
-  </si>
-  <si>
-    <t>1;0|2;0|3;0|4;0|0;1|0;2|0;3|1;4|2;5|3;5|4;4|5;4|5;3|5;2|5;1</t>
-  </si>
-  <si>
-    <t>1;0|2;0|3;0|4;0|5;0|0;1|0;2|0;3|0;4|0;5|0;6|1;7|2;7|5;7|6;6|7;5|7;4|7;3|6;1</t>
+    <t>1;1|2;1|3;1|4;1|5;1|6;1|1;2|2;2|3;2|4;2|5;2|6;2|7;2|1;3|2;3|3;3|4;3|5;3|6;3|7;3|1;4|2;4|3;4|4;4|5;4|6;4|7;4|1;5|2;5|3;5|4;5|5;5|6;5|7;5|1;6|2;6|3;6|4;6|5;6|6;6|2;7|3;7|4;7|5;7</t>
   </si>
   <si>
     <t>2;0|3;0|4;0|5;0|6;0|0;2|0;3|0;4|0;5|0;6|1;7|2;8|3;8|4;8|5;8|6;7|7;7|8;5|8;3|8;2|7;1</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|5;1|6;1|1;2|2;2|3;2|4;2|5;2|6;2|7;2|1;3|2;3|3;3|4;3|5;3|6;3|7;3|1;4|2;4|3;4|4;4|5;4|6;4|7;4|1;5|2;5|3;5|4;5|5;5|6;5|7;5|1;6|2;6|3;6|4;6|5;6|6;6|2;7|3;7|4;7|5;7</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|5;1|1;2|2;2|3;2|4;2|5;2|1;3|2;3|3;3|4;3|5;3|6;3|1;4|2;4|3;4|4;4|5;4|6;4|1;5|2;5|3;5|4;5|5;5|6;5|1;6|2;6|3;6|4;6|5;6</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|1;2|2;2|3;2|4;2|1;3|2;3|3;3|4;3|2;4|3;4</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|1;2|2;2|3;2|1;3|2;3|3;3</t>
-  </si>
-  <si>
-    <t>0;0|0;1|1;1|1;0|0;2|1;2|2;2|2;1|2;0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,65 +198,190 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,7 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,8 +412,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,6 +612,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -317,12 +658,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -336,46 +868,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -662,22 +1237,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
@@ -692,322 +1268,324 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+    <row r="5" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
         <v>100001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" ref="D5:D10" si="0">"island_"&amp;B5</f>
+        <v>island_100001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
+        <v>100002</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_100002</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>"island_"&amp;B5</f>
-        <v>island_100001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
+        <v>100003</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_100003</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8">
+        <v>100004</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_100004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
-        <v>100002</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f>"island_"&amp;B6</f>
-        <v>island_100002</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>100005</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_100005</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>38</v>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>100003</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f>"island_"&amp;B7</f>
-        <v>island_100003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_100006</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>100004</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f>"island_"&amp;B8</f>
-        <v>island_100004</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>100005</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f>"island_"&amp;B9</f>
-        <v>island_100005</v>
-      </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>100006</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f>"island_"&amp;B10</f>
-        <v>island_100006</v>
-      </c>
-      <c r="E10" s="10">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MFXZ\sky3d-cfg\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBAE584-37E8-4C60-B439-66FAC76B4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA7ABE-E93E-4C4E-8C5A-AF981BE1910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,22 @@
   </si>
   <si>
     <t>AttachmentPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>island</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_100001</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +394,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,10 +707,10 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -840,14 +859,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
-        <v>100001</v>
+        <v>101001</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D10" si="0">"island_"&amp;B5</f>
-        <v>island_100001</v>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="10">
         <v>3</v>
@@ -877,7 +895,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D10" si="0">"island_"&amp;B6</f>
         <v>island_100002</v>
       </c>
       <c r="E6" s="10">

--- a/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
@@ -1,30 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MFXZ\sky3d-cfg\LubanTools\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA7ABE-E93E-4C4E-8C5A-AF981BE1910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>AirHeight</t>
+  </si>
+  <si>
+    <t>BuildArea</t>
+  </si>
+  <si>
+    <t>AttachmentPoint</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -40,6 +74,9 @@
     <t>##group</t>
   </si>
   <si>
+    <t>c,s</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -73,137 +110,83 @@
     <t>附着点</t>
   </si>
   <si>
+    <t>岛屿</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>0;0|0;1|1;1|1;0|0;2|1;2|2;2|2;1|2;0</t>
+  </si>
+  <si>
+    <t>-1;1|1;-1|1;3|3;1</t>
+  </si>
+  <si>
+    <t>常规岛屿</t>
+  </si>
+  <si>
+    <t>0;0|0;1|1;0|0;2|2;0|1;2|2;2|2;1</t>
+  </si>
+  <si>
+    <t>微型岛屿</t>
+  </si>
+  <si>
     <t>1;1</t>
   </si>
   <si>
+    <t>1;0|0;1|2;1|1;3</t>
+  </si>
+  <si>
     <t>小型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|1;2|2;2|3;2|1;3|2;3|3;3</t>
+  </si>
+  <si>
+    <t>2;0|3;0|0;1|0;2|4;1|4;2|4;3|1;4|2;4|3;4</t>
+  </si>
+  <si>
     <t>中型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|4;1|1;2|2;2|3;2|4;2|1;3|2;3|3;3|4;3|2;4|3;4</t>
+  </si>
+  <si>
+    <t>1;0|2;0|3;0|4;0|0;1|0;2|0;3|1;4|2;5|3;5|4;4|5;4|5;3|5;2|5;1</t>
+  </si>
+  <si>
     <t>大型岛屿</t>
   </si>
   <si>
+    <t>1;1|2;1|3;1|4;1|5;1|1;2|2;2|3;2|4;2|5;2|1;3|2;3|3;3|4;3|5;3|6;3|1;4|2;4|3;4|4;4|5;4|6;4|1;5|2;5|3;5|4;5|5;5|6;5|1;6|2;6|3;6|4;6|5;6</t>
+  </si>
+  <si>
+    <t>1;0|2;0|3;0|4;0|5;0|0;1|0;2|0;3|0;4|0;5|0;6|1;7|2;7|5;7|6;6|7;5|7;4|7;3|6;1</t>
+  </si>
+  <si>
     <t>巨型岛屿</t>
   </si>
   <si>
-    <t>常规岛屿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型岛屿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|0;1|1;0|0;2|2;0|1;2|2;2|2;1</t>
-  </si>
-  <si>
-    <t>1;0|0;1|2;1|1;3</t>
-  </si>
-  <si>
-    <t>2;0|3;0|0;1|0;2|4;1|4;2|4;3|1;4|2;4|3;4</t>
-  </si>
-  <si>
-    <t>1;0|2;0|3;0|4;0|0;1|0;2|0;3|1;4|2;5|3;5|4;4|5;4|5;3|5;2|5;1</t>
-  </si>
-  <si>
-    <t>1;0|2;0|3;0|4;0|5;0|0;1|0;2|0;3|0;4|0;5|0;6|1;7|2;7|5;7|6;6|7;5|7;4|7;3|6;1</t>
+    <t>1;1|2;1|3;1|4;1|5;1|6;1|1;2|2;2|3;2|4;2|5;2|6;2|7;2|1;3|2;3|3;3|4;3|5;3|6;3|7;3|1;4|2;4|3;4|4;4|5;4|6;4|7;4|1;5|2;5|3;5|4;5|5;5|6;5|7;5|1;6|2;6|3;6|4;6|5;6|6;6|2;7|3;7|4;7|5;7</t>
   </si>
   <si>
     <t>2;0|3;0|4;0|5;0|6;0|0;2|0;3|0;4|0;5|0;6|1;7|2;8|3;8|4;8|5;8|6;7|7;7|8;5|8;3|8;2|7;1</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|5;1|6;1|1;2|2;2|3;2|4;2|5;2|6;2|7;2|1;3|2;3|3;3|4;3|5;3|6;3|7;3|1;4|2;4|3;4|4;4|5;4|6;4|7;4|1;5|2;5|3;5|4;5|5;5|6;5|7;5|1;6|2;6|3;6|4;6|5;6|6;6|2;7|3;7|4;7|5;7</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|5;1|1;2|2;2|3;2|4;2|5;2|1;3|2;3|3;3|4;3|5;3|6;3|1;4|2;4|3;4|4;4|5;4|6;4|1;5|2;5|3;5|4;5|5;5|6;5|1;6|2;6|3;6|4;6|5;6</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|4;1|1;2|2;2|3;2|4;2|1;3|2;3|3;3|4;3|2;4|3;4</t>
-  </si>
-  <si>
-    <t>1;1|2;1|3;1|1;2|2;2|3;2|1;3|2;3|3;3</t>
-  </si>
-  <si>
-    <t>0;0|0;1|1;1|1;0|0;2|1;2|2;2|2;1|2;0</t>
-  </si>
-  <si>
-    <t>c,s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirHeight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildArea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachmentPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>island</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_100001</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,78 +198,187 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,7 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,8 +409,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,6 +609,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -350,16 +655,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,49 +865,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -698,22 +1231,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
@@ -728,321 +1262,353 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
+        <v>101001</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" ref="D5:D11" si="0">"island_"&amp;B5</f>
+        <v>island_101001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="7" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>island_</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J11" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
-        <v>101001</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
-        <v>100002</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f t="shared" ref="D5:D10" si="0">"island_"&amp;B6</f>
-        <v>island_100002</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>100003</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>island_100003</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>100004</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>island_100004</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>100005</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>island_100005</v>
-      </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>100006</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>island_100006</v>
-      </c>
-      <c r="E10" s="10">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
@@ -1240,11 +1240,11 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Island_岛屿表.xlsx
@@ -1240,11 +1240,11 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
